--- a/designing_docs/表格/宠物表.xlsx
+++ b/designing_docs/表格/宠物表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="宠物升级表" sheetId="1" r:id="rId1"/>
-    <sheet name="宠物表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="宠物原型表" sheetId="2" r:id="rId2"/>
+    <sheet name="宠物动态数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能id1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能id2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耐力系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,15 +110,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>决定洗技能时的概率和可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前武器id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前防具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前技能id1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前技能id2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物modelID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物原型id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,10 +188,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,108 +748,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -848,12 +861,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="1"/>
+    <col min="7" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
